--- a/xiaomi_1.xlsx
+++ b/xiaomi_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Disciplinas\2° semestre\Ciência dos Dados\Projeto 2\Projeto2_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\2ºsemestre\Ciência dos dados\P2_tweets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB4BE3-C100-41F4-9A83-9564116E55DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF97B61-2669-46BD-9525-46EC740FE851}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="528">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1695,6 +1695,107 @@
   </si>
   <si>
     <t xml:space="preserve">Considera-se um produto bom </t>
+  </si>
+  <si>
+    <t>quarta meu xiaomi vem
+amem deus eu sei q tu me sondas</t>
+  </si>
+  <si>
+    <t>@luan_sanfe isso é a camera do xiaomi??? puta que pariu</t>
+  </si>
+  <si>
+    <t>xiaomi já permite desativar os anúncios na miui https://t.co/ugrttjtgj5 https://t.co/vmuwt2d45f</t>
+  </si>
+  <si>
+    <t>xiaomi mi mix 4 aparece em vazamento com câmera de 100 mp 
+https://t.co/ts3s13gcv2 https://t.co/nhicakfyac</t>
+  </si>
+  <si>
+    <t>e um fone xiaomi tb pq esse inferno de celular n vem com fone, porra capitalismo</t>
+  </si>
+  <si>
+    <t>@ocarlittle o meu xiaomi dura dois dias a bateria</t>
+  </si>
+  <si>
+    <t>xiaomi lovers é quase uma religião ficam tentando converter a galera ba sai fora</t>
+  </si>
+  <si>
+    <t>xiaomi também faz https://t.co/rjj3ctukkw</t>
+  </si>
+  <si>
+    <t>eu só queria um xiaomi</t>
+  </si>
+  <si>
+    <t>@alyssomsantos @correiosbr comprei o mi 9, converti pra testemunha de xiaomi</t>
+  </si>
+  <si>
+    <t>minha amiga comprou um xiaomi, que tesão de celular</t>
+  </si>
+  <si>
+    <t>@kkeaeze @jeancsilveir opa, já apareceu um xiaomi fã</t>
+  </si>
+  <si>
+    <t>@giovannabassalo @nicolasyukio poxa vida comprem xiaomi por favor</t>
+  </si>
+  <si>
+    <t>t.t amo quando me identificam como cosplayer/ vendedora dos xiaomi tudo https://t.co/xj9lr6lcdq</t>
+  </si>
+  <si>
+    <t>hoje vim pedir recomendaçao mas nao eh de livro nao
+eh de xiaomi
+quero um mas eu faço questao de camera boa</t>
+  </si>
+  <si>
+    <t>ei alguém q tem xiaomi que tem quer falar comigo sobre</t>
+  </si>
+  <si>
+    <t>@goncalojau xiaomi mi mix 4 vai ter uma câmara de 100mp: check
+pessoal que prefere câmaras de iphone: check</t>
+  </si>
+  <si>
+    <t>xiaomi mi 9 5g terá variante superior, o mi 9s, com mais ram e rom -&amp;gt; https://t.co/xkxaijcorr #smartphones #xioamimi9 https://t.co/xnqb38bylb</t>
+  </si>
+  <si>
+    <t>@carolgsantos_ com fio é mana ?? xiaomi dominando o mundo mds jkkkk</t>
+  </si>
+  <si>
+    <t>lâmpadas yeelight, da xiaomi, ganham compatibilidade com o homekit https://t.co/jysv4hwj63</t>
+  </si>
+  <si>
+    <t>@ocarlittle recomendo comprar meu xiaomi</t>
+  </si>
+  <si>
+    <t>@gustavo_costan meu pai comprou um xiaomi pra ele, aí vou ficar com o celular dele</t>
+  </si>
+  <si>
+    <t>mini barbeador elétrico portátil xiaomi mijia 7800rpm #banggood
+r$ 115.24 (usd $26.99)
+menor preço registrado! (usd)
+→ cupom: bgxms299
+→ link: https://t.co/mvfufwkf7k
+parcele em até 12x no cartão de crédito!
+visto em: @clubeofertaschina</t>
+  </si>
+  <si>
+    <t>@hugodlima @xiaomibrasil @xiaomi 🙄🙄🙄🙄 iphone 50000x melhor!</t>
+  </si>
+  <si>
+    <t>fui pesquisar sobre a xiaomi e gostei sla achei uma marca interessante</t>
+  </si>
+  <si>
+    <t>isso demonstra que muitos equipamentos são de baixa qualidade o meu celular está havaliado em 6 mil reais por causa da grande qualidade dos produtos shark e eu pago para a chinesa xiaomi fabricar aqui no brasil</t>
+  </si>
+  <si>
+    <t>@mumudesp se quiser eu pego meus slides e te apresento tudo sobre xiaomi, é o melhor celular que eu já tive</t>
+  </si>
+  <si>
+    <t>@oliviaa_gr câmera do iphone é absurda, eu tenho xiaomi e por mais que a câmera seja absurdamente boa, com a do iphone não bate; mas aí de resto não vejo iphone vantajoso em praticamente nada. no final das contas vai no que você confia mais, pq você pode se frustrar</t>
+  </si>
+  <si>
+    <t>entrar na loja e ver o xiaomi dos meus sonhos partiu meu coração</t>
+  </si>
+  <si>
+    <t>é meu momento de brilhar com meu xiaomi ligando o ar condicionado da sala com ele 🤩🤩😂</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1819,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,8 +1844,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1767,11 +1874,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1786,12 +1906,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2130,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B331" sqref="B331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2271,7 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,10 +2281,8 @@
       <c r="B1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="G1" s="6"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2163,12 +2291,8 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2177,12 +2301,8 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4568,10 +4688,247 @@
         <v>0</v>
       </c>
     </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>498</v>
+      </c>
+      <c r="B302" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>499</v>
+      </c>
+      <c r="B303" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>500</v>
+      </c>
+      <c r="B304" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>501</v>
+      </c>
+      <c r="B305" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>502</v>
+      </c>
+      <c r="B306" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>503</v>
+      </c>
+      <c r="B307" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>504</v>
+      </c>
+      <c r="B308" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>505</v>
+      </c>
+      <c r="B309" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>506</v>
+      </c>
+      <c r="B310" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>507</v>
+      </c>
+      <c r="B311" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>508</v>
+      </c>
+      <c r="B312" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>509</v>
+      </c>
+      <c r="B313" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>510</v>
+      </c>
+      <c r="B314" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>511</v>
+      </c>
+      <c r="B315" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>512</v>
+      </c>
+      <c r="B316" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>513</v>
+      </c>
+      <c r="B317" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>514</v>
+      </c>
+      <c r="B318" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>515</v>
+      </c>
+      <c r="B319" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>516</v>
+      </c>
+      <c r="B320" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>517</v>
+      </c>
+      <c r="B321" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>518</v>
+      </c>
+      <c r="B322" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>519</v>
+      </c>
+      <c r="B323" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>520</v>
+      </c>
+      <c r="B324" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>521</v>
+      </c>
+      <c r="B325" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>522</v>
+      </c>
+      <c r="B326" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>523</v>
+      </c>
+      <c r="B327" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>524</v>
+      </c>
+      <c r="B328" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>525</v>
+      </c>
+      <c r="B329" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>526</v>
+      </c>
+      <c r="B330" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>527</v>
+      </c>
+      <c r="B331" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4581,14 +4938,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C673864D-2D9C-49D8-A3D4-C4B0AF0F1446}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4598,10 +4955,10 @@
       <c r="B1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4610,7 +4967,7 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>497</v>
       </c>
       <c r="E2" s="5">
@@ -4624,7 +4981,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>496</v>
       </c>
       <c r="E3" s="5">
